--- a/data/2018_12_04_Kalkspat/Ratios.xlsx
+++ b/data/2018_12_04_Kalkspat/Ratios.xlsx
@@ -525,64 +525,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>9.1250172011903</v>
+        <v>8.826323869878694</v>
       </c>
       <c r="C2">
         <v>0.001159614395954876</v>
       </c>
       <c r="D2">
-        <v>0.009822973307549833</v>
+        <v>0.009980330884451246</v>
       </c>
       <c r="E2">
-        <v>2.647069281128994</v>
+        <v>2.605333549840008</v>
       </c>
       <c r="F2">
-        <v>0.007155222179922449</v>
+        <v>0.007154960933989963</v>
       </c>
       <c r="G2">
-        <v>0.01152627916976209</v>
+        <v>0.0115267000237091</v>
       </c>
       <c r="H2">
-        <v>2.698838652737375</v>
+        <v>2.698593663286103</v>
       </c>
       <c r="I2">
-        <v>0.03448469296987678</v>
+        <v>0.03448782363238552</v>
       </c>
       <c r="J2">
-        <v>2.053468276092518</v>
+        <v>2.050524027454445</v>
       </c>
       <c r="K2">
-        <v>2.547862529866442</v>
+        <v>2.551520882893824</v>
       </c>
       <c r="L2">
-        <v>0.007636826664827963</v>
+        <v>0.007634566222208581</v>
       </c>
       <c r="M2">
-        <v>0.1149128577915022</v>
+        <v>0.1149468811942348</v>
       </c>
       <c r="N2">
-        <v>5.538708498508108E-05</v>
+        <v>5.537069082911047E-05</v>
       </c>
       <c r="O2">
-        <v>0.1149128577915022</v>
+        <v>0.1149468811942348</v>
       </c>
       <c r="P2">
-        <v>1.319349961630782</v>
+        <v>1.317982001273994</v>
       </c>
       <c r="Q2">
-        <v>0.4957000488616745</v>
+        <v>0.4962145460361773</v>
       </c>
       <c r="R2">
-        <v>0.178850485255026</v>
+        <v>0.1795451629659277</v>
       </c>
       <c r="S2">
-        <v>1.088362050593958</v>
+        <v>1.084151071888382</v>
       </c>
       <c r="T2">
-        <v>0.2367085294466887</v>
+        <v>0.2367460412110516</v>
       </c>
       <c r="U2">
-        <v>0.8836706419389911</v>
+        <v>0.8835306267365182</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -590,64 +590,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>74.81987434157445</v>
+        <v>73.44589941449864</v>
       </c>
       <c r="C3">
-        <v>0.00630477309818408</v>
+        <v>0.006304773098184079</v>
       </c>
       <c r="D3">
-        <v>0.01021986747431118</v>
+        <v>0.01021983012895077</v>
       </c>
       <c r="E3">
-        <v>1.149636157598625</v>
+        <v>1.149640358605502</v>
       </c>
       <c r="F3">
-        <v>0.007139345755092823</v>
+        <v>0.007127018365470967</v>
       </c>
       <c r="G3">
-        <v>0.1894029624684143</v>
+        <v>0.1897305670842792</v>
       </c>
       <c r="H3">
-        <v>0.06548414230921047</v>
+        <v>0.06549324830249775</v>
       </c>
       <c r="I3">
-        <v>0.1555344743507044</v>
+        <v>0.1555128492837534</v>
       </c>
       <c r="J3">
-        <v>0.05196550738618206</v>
+        <v>0.05219265798804663</v>
       </c>
       <c r="K3">
-        <v>1.245596913721771</v>
+        <v>1.240175881347881</v>
       </c>
       <c r="L3">
-        <v>0.008133990275084317</v>
+        <v>0.008123592347988033</v>
       </c>
       <c r="M3">
-        <v>0.5865888088500725</v>
+        <v>0.5873396229491367</v>
       </c>
       <c r="N3">
-        <v>5.899282914313297E-05</v>
+        <v>5.891741681586317E-05</v>
       </c>
       <c r="O3">
-        <v>0.5865888088500718</v>
+        <v>0.5873396229491361</v>
       </c>
       <c r="P3">
-        <v>0.03785703990378008</v>
+        <v>0.03765782008858239</v>
       </c>
       <c r="Q3">
-        <v>1.286391250958853</v>
+        <v>1.293196600463554</v>
       </c>
       <c r="R3">
-        <v>0.01201968506983445</v>
+        <v>0.01199563264905194</v>
       </c>
       <c r="S3">
-        <v>0.4136398791023468</v>
+        <v>0.4144692676569704</v>
       </c>
       <c r="T3">
-        <v>0.000453243860233015</v>
+        <v>0.0004523906411693518</v>
       </c>
       <c r="U3">
-        <v>1.203670551879556</v>
+        <v>1.205940701983853</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -655,64 +655,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>5.904731086325388</v>
+        <v>6.456226599700132</v>
       </c>
       <c r="C4">
         <v>0.00108901803644999</v>
       </c>
       <c r="D4">
-        <v>0.01018613861160443</v>
+        <v>0.01014482661905472</v>
       </c>
       <c r="E4">
-        <v>2.141279356368988</v>
+        <v>2.149999122624135</v>
       </c>
       <c r="F4">
-        <v>0.007148932384022773</v>
+        <v>0.007149205662257013</v>
       </c>
       <c r="G4">
-        <v>0.0101258632295778</v>
+        <v>0.01012547616867141</v>
       </c>
       <c r="H4">
-        <v>2.69751450414424</v>
+        <v>2.697468303110969</v>
       </c>
       <c r="I4">
-        <v>0.0295541052722103</v>
+        <v>0.02955461146173601</v>
       </c>
       <c r="J4">
-        <v>2.019393838289746</v>
+        <v>2.031225692601767</v>
       </c>
       <c r="K4">
-        <v>2.147808389605795</v>
+        <v>2.135297443112498</v>
       </c>
       <c r="L4">
-        <v>0.007612456278155176</v>
+        <v>0.007616629869702593</v>
       </c>
       <c r="M4">
-        <v>0.108262542445139</v>
+        <v>0.1082032191433927</v>
       </c>
       <c r="N4">
-        <v>5.521033556585154E-05</v>
+        <v>5.524060508483831E-05</v>
       </c>
       <c r="O4">
-        <v>0.1082625424451386</v>
+        <v>0.1082032191433922</v>
       </c>
       <c r="P4">
-        <v>1.303163106978992</v>
+        <v>1.301803927908641</v>
       </c>
       <c r="Q4">
-        <v>0.5645183219073141</v>
+        <v>0.5651077205652203</v>
       </c>
       <c r="R4">
-        <v>0.1868350246477223</v>
+        <v>0.1862177410997875</v>
       </c>
       <c r="S4">
-        <v>1.192174316255655</v>
+        <v>1.196126193167859</v>
       </c>
       <c r="T4">
-        <v>0.2429835800442148</v>
+        <v>0.2427615583897559</v>
       </c>
       <c r="U4">
-        <v>1.12349809425999</v>
+        <v>1.124525608283724</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -720,64 +720,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>55.55042716792413</v>
+        <v>57.12460256611806</v>
       </c>
       <c r="C5">
         <v>0.002612191039587938</v>
       </c>
       <c r="D5">
-        <v>0.01016365829538154</v>
+        <v>0.0101917214140624</v>
       </c>
       <c r="E5">
-        <v>0.8900084943418377</v>
+        <v>0.887557837285099</v>
       </c>
       <c r="F5">
-        <v>0.007138379072383065</v>
+        <v>0.007139027738318955</v>
       </c>
       <c r="G5">
-        <v>0.04686772783060258</v>
+        <v>0.04686346933775865</v>
       </c>
       <c r="H5">
-        <v>0.2012999591522023</v>
+        <v>0.201319306276962</v>
       </c>
       <c r="I5">
-        <v>0.03696496067068149</v>
+        <v>0.03696140827563774</v>
       </c>
       <c r="J5">
-        <v>0.1584551496273301</v>
+        <v>0.1583534488136806</v>
       </c>
       <c r="K5">
-        <v>0.9794505054622781</v>
+        <v>0.9800795471035005</v>
       </c>
       <c r="L5">
-        <v>0.007988163518752018</v>
+        <v>0.008000076517093278</v>
       </c>
       <c r="M5">
-        <v>0.2474719324018023</v>
+        <v>0.2471034193364696</v>
       </c>
       <c r="N5">
-        <v>5.793520150529818E-05</v>
+        <v>5.802160208508264E-05</v>
       </c>
       <c r="O5">
-        <v>0.247471932401802</v>
+        <v>0.2471034193364692</v>
       </c>
       <c r="P5">
-        <v>0.106657348839347</v>
+        <v>0.1066682510327175</v>
       </c>
       <c r="Q5">
-        <v>0.6403646821758061</v>
+        <v>0.6402992327142731</v>
       </c>
       <c r="R5">
-        <v>0.006706386637685306</v>
+        <v>0.006702184445315113</v>
       </c>
       <c r="S5">
-        <v>0.2883352615123068</v>
+        <v>0.2885160443967336</v>
       </c>
       <c r="T5">
-        <v>0.000716029848322484</v>
+        <v>0.0007146576601979811</v>
       </c>
       <c r="U5">
-        <v>0.6176116549812477</v>
+        <v>0.6187975086084027</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -785,64 +785,64 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>2.573940099083183</v>
+        <v>3.25235356782283</v>
       </c>
       <c r="C6">
-        <v>0.002662033051130803</v>
+        <v>0.002662033051130804</v>
       </c>
       <c r="D6">
-        <v>0.01001756038580041</v>
+        <v>0.01018069142232957</v>
       </c>
       <c r="E6">
-        <v>2.17067729403464</v>
+        <v>2.135895291294677</v>
       </c>
       <c r="F6">
-        <v>0.007142962028058085</v>
+        <v>0.007143557334989194</v>
       </c>
       <c r="G6">
-        <v>0.02216538450896059</v>
+        <v>0.02216353736104673</v>
       </c>
       <c r="H6">
-        <v>2.697671796060439</v>
+        <v>2.6976529023192</v>
       </c>
       <c r="I6">
-        <v>0.03879640132873732</v>
+        <v>0.03879667304982015</v>
       </c>
       <c r="J6">
-        <v>2.018356051966617</v>
+        <v>2.002235278351833</v>
       </c>
       <c r="K6">
-        <v>2.359012001767014</v>
+        <v>2.378005323304305</v>
       </c>
       <c r="L6">
-        <v>0.007587249615955</v>
+        <v>0.007592383693477147</v>
       </c>
       <c r="M6">
-        <v>0.2655198728652081</v>
+        <v>0.2653403245618035</v>
       </c>
       <c r="N6">
-        <v>5.502752094889795E-05</v>
+        <v>5.506475651813626E-05</v>
       </c>
       <c r="O6">
-        <v>0.2655198728652091</v>
+        <v>0.2653403245618046</v>
       </c>
       <c r="P6">
-        <v>1.308204216598731</v>
+        <v>1.312114338518774</v>
       </c>
       <c r="Q6">
-        <v>0.5323502890541139</v>
+        <v>0.5307638765950279</v>
       </c>
       <c r="R6">
-        <v>0.1829981978177919</v>
+        <v>0.1837664545213583</v>
       </c>
       <c r="S6">
-        <v>0.9636235896396261</v>
+        <v>0.9595950508925324</v>
       </c>
       <c r="T6">
-        <v>0.2411355493080356</v>
+        <v>0.2408908987958657</v>
       </c>
       <c r="U6">
-        <v>0.8960947592348744</v>
+        <v>0.8970048394533275</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -850,64 +850,64 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1435.241454001175</v>
+        <v>1843.352128737838</v>
       </c>
       <c r="C7">
         <v>0.3540058503427504</v>
       </c>
       <c r="D7">
-        <v>0.009715298620253925</v>
+        <v>0.01099259374272305</v>
       </c>
       <c r="E7">
-        <v>8.699874852240432</v>
+        <v>7.68898443138642</v>
       </c>
       <c r="F7">
-        <v>0.007257871211980124</v>
+        <v>0.007026916964703854</v>
       </c>
       <c r="G7">
-        <v>6.08115770928247</v>
+        <v>6.28102761074427</v>
       </c>
       <c r="H7">
-        <v>0.0009755399710405044</v>
+        <v>0.0009371433162576584</v>
       </c>
       <c r="I7">
-        <v>5.338819405409557</v>
+        <v>5.557561621355863</v>
       </c>
       <c r="J7">
-        <v>0.001782453688259827</v>
+        <v>0.001793228422822694</v>
       </c>
       <c r="K7">
-        <v>3.891242935832232</v>
+        <v>3.867862138818527</v>
       </c>
       <c r="L7">
-        <v>0.01842934874688851</v>
+        <v>0.02151783672400157</v>
       </c>
       <c r="M7">
-        <v>14.53678647598205</v>
+        <v>12.45029930569642</v>
       </c>
       <c r="N7">
-        <v>0.0001336612640384716</v>
+        <v>0.0001560609273504077</v>
       </c>
       <c r="O7">
-        <v>14.53678647598201</v>
+        <v>12.45029930569638</v>
       </c>
       <c r="P7">
-        <v>0.001180350622224594</v>
+        <v>0.001148513764031294</v>
       </c>
       <c r="Q7">
-        <v>4.852884726702723</v>
+        <v>4.987406930711991</v>
       </c>
       <c r="R7">
-        <v>0.03624416661195629</v>
+        <v>0.04023467784025375</v>
       </c>
       <c r="S7">
-        <v>8.796935523944107</v>
+        <v>7.924447613831233</v>
       </c>
       <c r="T7">
-        <v>4.505735915126019E-05</v>
+        <v>4.77373312625448E-05</v>
       </c>
       <c r="U7">
-        <v>7.224353258784872</v>
+        <v>6.818778318930568</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -915,64 +915,64 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>6.140992178394367</v>
+        <v>6.188928778140257</v>
       </c>
       <c r="C8">
-        <v>0.002047899435967597</v>
+        <v>0.002047899435967596</v>
       </c>
       <c r="D8">
-        <v>0.01013340586195936</v>
+        <v>0.00996685217860482</v>
       </c>
       <c r="E8">
-        <v>2.987222612639525</v>
+        <v>3.037141375376181</v>
       </c>
       <c r="F8">
-        <v>0.007144929262765886</v>
+        <v>0.007144766831690254</v>
       </c>
       <c r="G8">
-        <v>0.01880940218644287</v>
+        <v>0.0188098298045165</v>
       </c>
       <c r="H8">
-        <v>2.694826267569996</v>
+        <v>2.694821661865349</v>
       </c>
       <c r="I8">
-        <v>0.02633056642055293</v>
+        <v>0.0263306114219769</v>
       </c>
       <c r="J8">
-        <v>2.016930171331057</v>
+        <v>2.072100467649069</v>
       </c>
       <c r="K8">
-        <v>3.219738487758493</v>
+        <v>3.134011985009483</v>
       </c>
       <c r="L8">
-        <v>0.0076142442479082</v>
+        <v>0.007614607021099747</v>
       </c>
       <c r="M8">
-        <v>0.2035400060118507</v>
+        <v>0.2035303090101034</v>
       </c>
       <c r="N8">
-        <v>5.522330305051602E-05</v>
+        <v>5.522593411057177E-05</v>
       </c>
       <c r="O8">
-        <v>0.2035400060118505</v>
+        <v>0.2035303090101032</v>
       </c>
       <c r="P8">
-        <v>1.308494421134029</v>
+        <v>1.302701122213039</v>
       </c>
       <c r="Q8">
-        <v>0.5307193403636826</v>
+        <v>0.5330795254663515</v>
       </c>
       <c r="R8">
-        <v>0.1833278460165741</v>
+        <v>0.1839712681001527</v>
       </c>
       <c r="S8">
-        <v>1.284713891851767</v>
+        <v>1.280220726709003</v>
       </c>
       <c r="T8">
-        <v>0.2404764265565019</v>
+        <v>0.2405415892442658</v>
       </c>
       <c r="U8">
-        <v>1.362659814413984</v>
+        <v>1.362290670033197</v>
       </c>
     </row>
   </sheetData>
